--- a/liga_eliminacao/datasets_liga_eliminacao/links_times_cartola_liga_eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/links_times_cartola_liga_eliminacao.xlsx
@@ -52,6 +52,9 @@
     <t>PUXE FC</t>
   </si>
   <si>
+    <t xml:space="preserve">A Lenda Super Vasco F.c </t>
+  </si>
+  <si>
     <t>Super Vasco f.c</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t>FBC Colorado</t>
   </si>
   <si>
-    <t>KillerColorado</t>
-  </si>
-  <si>
     <t>https://cartola.globo.com/#!/time/13951133</t>
   </si>
   <si>
@@ -148,6 +148,9 @@
     <t>https://cartola.globo.com/#!/time/3447341</t>
   </si>
   <si>
+    <t>https://cartola.globo.com/#!/time/117598</t>
+  </si>
+  <si>
     <t>https://cartola.globo.com/#!/time/13707047</t>
   </si>
   <si>
@@ -212,9 +215,6 @@
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/186283</t>
-  </si>
-  <si>
-    <t>https://cartola.globo.com/#!/time/36359</t>
   </si>
 </sst>
 </file>
@@ -706,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>13707047</v>
+        <v>117598</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
@@ -717,7 +717,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1273719</v>
+        <v>13707047</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>45</v>
@@ -728,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>44810918</v>
+        <v>1273719</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>46</v>
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>24468241</v>
+        <v>44810918</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>47</v>
@@ -750,7 +750,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>25401606</v>
+        <v>24468241</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>48</v>
@@ -761,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>18661583</v>
+        <v>25401606</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>49</v>
@@ -772,7 +772,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>29228373</v>
+        <v>18661583</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>50</v>
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>17887202</v>
+        <v>29228373</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>51</v>
@@ -794,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>20696550</v>
+        <v>17887202</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>52</v>
@@ -805,7 +805,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>212042</v>
+        <v>20696550</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>53</v>
@@ -816,7 +816,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>479510</v>
+        <v>212042</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>54</v>
@@ -827,7 +827,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>4911779</v>
+        <v>479510</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>55</v>
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>14696986</v>
+        <v>4911779</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>56</v>
@@ -849,7 +849,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>47543456</v>
+        <v>14696986</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>57</v>
@@ -860,7 +860,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>25565675</v>
+        <v>47543456</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>58</v>
@@ -871,7 +871,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>25811332</v>
+        <v>25565675</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>59</v>
@@ -882,7 +882,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>5823700</v>
+        <v>25811332</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>60</v>
@@ -893,7 +893,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>18421230</v>
+        <v>5823700</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>61</v>
@@ -904,7 +904,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>18346776</v>
+        <v>18421230</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>62</v>
@@ -915,7 +915,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>14227419</v>
+        <v>18346776</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>63</v>
@@ -926,7 +926,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>3015891</v>
+        <v>14227419</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>64</v>
@@ -937,7 +937,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>186283</v>
+        <v>3015891</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>65</v>
@@ -948,7 +948,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>36359</v>
+        <v>186283</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>66</v>
@@ -965,29 +965,29 @@
     <hyperlink ref="C8" r:id="rId7" location="!/time/48498051"/>
     <hyperlink ref="C9" r:id="rId8" location="!/time/6148913"/>
     <hyperlink ref="C10" r:id="rId9" location="!/time/3447341"/>
-    <hyperlink ref="C11" r:id="rId10" location="!/time/13707047"/>
-    <hyperlink ref="C12" r:id="rId11" location="!/time/1273719"/>
-    <hyperlink ref="C13" r:id="rId12" location="!/time/44810918"/>
-    <hyperlink ref="C14" r:id="rId13" location="!/time/24468241"/>
-    <hyperlink ref="C15" r:id="rId14" location="!/time/25401606"/>
-    <hyperlink ref="C16" r:id="rId15" location="!/time/18661583"/>
-    <hyperlink ref="C17" r:id="rId16" location="!/time/29228373"/>
-    <hyperlink ref="C18" r:id="rId17" location="!/time/17887202"/>
-    <hyperlink ref="C19" r:id="rId18" location="!/time/20696550"/>
-    <hyperlink ref="C20" r:id="rId19" location="!/time/212042"/>
-    <hyperlink ref="C21" r:id="rId20" location="!/time/479510"/>
-    <hyperlink ref="C22" r:id="rId21" location="!/time/4911779"/>
-    <hyperlink ref="C23" r:id="rId22" location="!/time/14696986"/>
-    <hyperlink ref="C24" r:id="rId23" location="!/time/47543456"/>
-    <hyperlink ref="C25" r:id="rId24" location="!/time/25565675"/>
-    <hyperlink ref="C26" r:id="rId25" location="!/time/25811332"/>
-    <hyperlink ref="C27" r:id="rId26" location="!/time/5823700"/>
-    <hyperlink ref="C28" r:id="rId27" location="!/time/18421230"/>
-    <hyperlink ref="C29" r:id="rId28" location="!/time/18346776"/>
-    <hyperlink ref="C30" r:id="rId29" location="!/time/14227419"/>
-    <hyperlink ref="C31" r:id="rId30" location="!/time/3015891"/>
-    <hyperlink ref="C32" r:id="rId31" location="!/time/186283"/>
-    <hyperlink ref="C33" r:id="rId32" location="!/time/36359"/>
+    <hyperlink ref="C11" r:id="rId10" location="!/time/117598"/>
+    <hyperlink ref="C12" r:id="rId11" location="!/time/13707047"/>
+    <hyperlink ref="C13" r:id="rId12" location="!/time/1273719"/>
+    <hyperlink ref="C14" r:id="rId13" location="!/time/44810918"/>
+    <hyperlink ref="C15" r:id="rId14" location="!/time/24468241"/>
+    <hyperlink ref="C16" r:id="rId15" location="!/time/25401606"/>
+    <hyperlink ref="C17" r:id="rId16" location="!/time/18661583"/>
+    <hyperlink ref="C18" r:id="rId17" location="!/time/29228373"/>
+    <hyperlink ref="C19" r:id="rId18" location="!/time/17887202"/>
+    <hyperlink ref="C20" r:id="rId19" location="!/time/20696550"/>
+    <hyperlink ref="C21" r:id="rId20" location="!/time/212042"/>
+    <hyperlink ref="C22" r:id="rId21" location="!/time/479510"/>
+    <hyperlink ref="C23" r:id="rId22" location="!/time/4911779"/>
+    <hyperlink ref="C24" r:id="rId23" location="!/time/14696986"/>
+    <hyperlink ref="C25" r:id="rId24" location="!/time/47543456"/>
+    <hyperlink ref="C26" r:id="rId25" location="!/time/25565675"/>
+    <hyperlink ref="C27" r:id="rId26" location="!/time/25811332"/>
+    <hyperlink ref="C28" r:id="rId27" location="!/time/5823700"/>
+    <hyperlink ref="C29" r:id="rId28" location="!/time/18421230"/>
+    <hyperlink ref="C30" r:id="rId29" location="!/time/18346776"/>
+    <hyperlink ref="C31" r:id="rId30" location="!/time/14227419"/>
+    <hyperlink ref="C32" r:id="rId31" location="!/time/3015891"/>
+    <hyperlink ref="C33" r:id="rId32" location="!/time/186283"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
